--- a/Turma Intensivo - Manhã Julho 2017/Aula 7/Formatos Data - Exercicio.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/Aula 7/Formatos Data - Exercicio.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7260" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="6" r:id="rId2"/>
-    <sheet name="Aniversario" sheetId="2" r:id="rId3"/>
-    <sheet name="Dias de Vida" sheetId="3" r:id="rId4"/>
-    <sheet name="Estacionamento" sheetId="4" r:id="rId5"/>
-    <sheet name="Data Dif" sheetId="5" r:id="rId6"/>
+    <sheet name="Aniversario" sheetId="2" r:id="rId2"/>
+    <sheet name="Dias de Vida" sheetId="3" r:id="rId3"/>
+    <sheet name="Estacionamento" sheetId="4" r:id="rId4"/>
+    <sheet name="Data Dif" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$K$366</definedName>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Data</t>
   </si>
@@ -150,18 +149,29 @@
     <t>Dias de Vida</t>
   </si>
   <si>
-    <t>marcio roberto camargo</t>
+    <t>Tuma-451</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="170" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -244,7 +254,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -259,6 +269,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ênfase1" xfId="3" builtinId="29"/>
@@ -677,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18632,44 +18644,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="str">
-        <f>PROPER(A1)</f>
-        <v>Marcio Roberto Camargo</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
@@ -18684,8 +18669,17 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="1">
+        <v>31764</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TEXT(B2,"dddd")</f>
+        <v>quinta-feira</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f ca="1">INT((TODAY()-B2)/365)&amp;" Anos de Idade"</f>
+        <v>30 Anos de Idade</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -18693,18 +18687,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -18716,20 +18710,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="1">
+        <v>31764</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f ca="1">TODAY()-A2 &amp; " Dias de vida"</f>
+        <v>11178 Dias de vida</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=HOJE()-A2 &amp; " Dias de vida"</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E12"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18788,6 +18793,14 @@
       <c r="C8" s="8">
         <v>42907.135416666664</v>
       </c>
+      <c r="D8" s="12">
+        <f>C8-B8</f>
+        <v>0.26041666666424135</v>
+      </c>
+      <c r="E8" s="13">
+        <f>D8*$B$3*24</f>
+        <v>24.999999999767169</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
     </row>
@@ -18801,6 +18814,14 @@
       <c r="C9" s="8">
         <v>42906.989583333336</v>
       </c>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9:D13" si="0">C9-B9</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" ref="E9:E13" si="1">D9*$B$3*24</f>
+        <v>9</v>
+      </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -18813,6 +18834,14 @@
       <c r="C10" s="8">
         <v>42908.350694444445</v>
       </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1006944444452529</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>105.66666666674428</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -18825,6 +18854,14 @@
       <c r="C11" s="8">
         <v>42908.635416666664</v>
       </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.13541666666424135</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>12.999999999767169</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -18837,21 +18874,51 @@
       <c r="C12" s="8">
         <v>42924.661111111112</v>
       </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>8.8194444448163267E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>8.4666666670236737</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8">
+        <v>42942.375</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42942.403108101855</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>2.8108101854741108E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6983777780551463</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <f>SUM(D8:D13)</f>
+        <v>1.70658032407664</v>
+      </c>
     </row>
     <row r="17" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <f>SUM(E8:E13)</f>
+        <v>163.83171111135744</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18863,12 +18930,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:G7"/>
+  <dimension ref="C5:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18878,17 +18945,18 @@
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
-        <v>42860</v>
+        <v>31764</v>
       </c>
       <c r="D5" s="1">
-        <v>42924</v>
+        <f ca="1">TODAY()</f>
+        <v>42942</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5">
-        <f>DATEDIF($C$5,$D$5,"m")</f>
-        <v>2</v>
+        <f ca="1">DATEDIF($C$5,$D$5,"m")</f>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
@@ -18896,8 +18964,8 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <f>DATEDIF($C$5,$D$5,"d")</f>
-        <v>64</v>
+        <f ca="1">DATEDIF($C$5,$D$5,"d")</f>
+        <v>11178</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
@@ -18905,8 +18973,35 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <f>DATEDIF($C$5,$D$5,"y")</f>
-        <v>0</v>
+        <f ca="1">DATEDIF($C$5,$D$5,"y")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <f ca="1">DATEDIF($C$5,$D$5,"MD")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <f ca="1">DATEDIF($C$5,$D$5,"yM")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <f ca="1">DATEDIF($C$5,$D$5,"yd")</f>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
